--- a/doc/财务记录/球管测速仪研发支出.xlsx
+++ b/doc/财务记录/球管测速仪研发支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>何老师一行的车马费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -182,18 +182,48 @@
     <t>https://item.taobao.com/item.htm?spm=a1z10.1-c.w4004-15076674821.6.2b9e797crvolar&amp;id=564108967099</t>
   </si>
   <si>
-    <r>
-      <t>TPA7297</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>及</t>
+    <t>https://detail.tmall.com/item.htm?id=561863228500&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni5156</t>
+  </si>
+  <si>
+    <r>
+      <t>AS0515</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电源模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=520695113140&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni863d</t>
+  </si>
+  <si>
+    <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>NE5532</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放大模块及</t>
     </r>
     <r>
       <rPr>
@@ -203,63 +233,59 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>LM358</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放大模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=561863228500&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni5156</t>
-  </si>
-  <si>
-    <r>
-      <t>AS0515</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电源模块</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=520695113140&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni863d</t>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>NE5532</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>放大模块及</t>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=543328775297&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni8c0c</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>SMA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>跳线</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=533105451979&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni2159</t>
+  </si>
+  <si>
+    <r>
+      <t>ZLAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模块</t>
     </r>
     <r>
       <rPr>
@@ -269,59 +295,82 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>SMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>线</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=543328775297&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni8c0c</t>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>SMA</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>跳线</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=533105451979&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni2159</t>
-  </si>
-  <si>
-    <r>
-      <t>ZLAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>模块</t>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>数据采集卡</t>
+    </r>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;id=42610943112&amp;_u=93s1sni9033</t>
+  </si>
+  <si>
+    <t>退货仅运费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=42617614385&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1snid484</t>
+  </si>
+  <si>
+    <t>可调电源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双路直流稳压电源</t>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=17204422349&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni7fbc</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;id=560383848868&amp;_u=93s1snibe8c</t>
+  </si>
+  <si>
+    <r>
+      <t>USB</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>逻辑分析仪</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;id=550976500123&amp;_u=93s1sni0198</t>
+  </si>
+  <si>
+    <t>贴片电阻包</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电流传感器模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>https://detail.tmall.com/item.htm?id=553599988804&amp;ali_refid=a3_430583_1006:1109983619:N:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>电流传感器</t>
     </r>
     <r>
       <rPr>
@@ -331,82 +380,26 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>USB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>数据采集卡</t>
-    </r>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;id=42610943112&amp;_u=93s1sni9033</t>
-  </si>
-  <si>
-    <t>退货仅运费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=42617614385&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1snid484</t>
-  </si>
-  <si>
-    <t>可调电源</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双路直流稳压电源</t>
-  </si>
-  <si>
-    <t>https://detail.tmall.com/item.htm?id=17204422349&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni7fbc</t>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;id=560383848868&amp;_u=93s1snibe8c</t>
-  </si>
-  <si>
-    <r>
-      <t>USB</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>逻辑分析仪</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;id=550976500123&amp;_u=93s1sni0198</t>
-  </si>
-  <si>
-    <t>贴片电阻包</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>电流传感器模块</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>https://detail.tmall.com/item.htm?id=553599988804&amp;ali_refid=a3_430583_1006:1109983619:N:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>电流传感器</t>
+      <t>:e5caa30019b29ce44e32ad63fd0bff06&amp;ali_trackid=1_e5caa30019b29ce44e32ad63fd0bff06&amp;spm=a230r.1.14.1</t>
+    </r>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=533105451979&amp;spm=a1z09.2.0.0.2cb82e8dki5KL2&amp;_u=93s1sni2159</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>TPA7297</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>及</t>
     </r>
     <r>
       <rPr>
@@ -416,8 +409,121 @@
         <family val="2"/>
         <charset val="134"/>
       </rPr>
-      <t>:e5caa30019b29ce44e32ad63fd0bff06&amp;ali_trackid=1_e5caa30019b29ce44e32ad63fd0bff06&amp;spm=a230r.1.14.1</t>
-    </r>
+      <t>LM358</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>放大模块</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多件合单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.98872e8dLO47Ml&amp;id=549017777951&amp;_u=f3s1snifae4</t>
+  </si>
+  <si>
+    <t>信号发生器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电路模块</t>
+  </si>
+  <si>
+    <t>电路模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>类目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NE5532放大器模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=543328775297&amp;spm=a1z09.2.0.0.98872e8dLO47Ml&amp;_u=f3s1sni5af4</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.98872e8dLO47Ml&amp;id=523361737493&amp;_u=f3s1sni09c7</t>
+  </si>
+  <si>
+    <t>ST32F407核心板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=41251333448&amp;spm=a1z09.2.0.0.98872e8dLO47Ml&amp;_u=f3s1snic2d6</t>
+  </si>
+  <si>
+    <t>18D20温度传感器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压电陶瓷片</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.98872e8dLO47Ml&amp;id=18498661630&amp;_u=f3s1snif3e7</t>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.98872e8dLO47Ml&amp;id=17900166833&amp;_u=f3s1snia725</t>
+  </si>
+  <si>
+    <t>STLink下载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.98872e8dLO47Ml&amp;id=523113640661&amp;_u=f3s1sni8901</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.98872e8dLO47Ml&amp;id=35886886088&amp;_u=f3s1snib749</t>
+  </si>
+  <si>
+    <t>USB转485调试器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STLinkV2下载器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USB串口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://detail.tmall.com/item.htm?id=520311054724&amp;spm=a1z09.2.0.0.67002e8dY5QF6p&amp;_u=f3s1snicf50</t>
   </si>
 </sst>
 </file>
@@ -763,415 +869,716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:H20"/>
+  <dimension ref="B2:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H30" sqref="H30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.25" customWidth="1"/>
-    <col min="4" max="4" width="45" customWidth="1"/>
-    <col min="5" max="5" width="6.375" customWidth="1"/>
-    <col min="7" max="7" width="14.75" customWidth="1"/>
-    <col min="8" max="8" width="16.625" customWidth="1"/>
+    <col min="3" max="3" width="17.875" customWidth="1"/>
+    <col min="4" max="4" width="24.25" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="6.375" customWidth="1"/>
+    <col min="8" max="8" width="14.75" customWidth="1"/>
+    <col min="9" max="9" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8">
+    <row r="2" spans="2:9">
+      <c r="B2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>47</v>
+      </c>
       <c r="E2" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="2:8">
+    <row r="3" spans="2:9">
       <c r="B3">
         <v>20171202</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-      <c r="F3">
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>150</v>
       </c>
-      <c r="G3">
-        <f t="shared" ref="G3:G20" si="0">G2+F3</f>
+      <c r="H3">
+        <f t="shared" ref="H3:H29" si="0">H2+G3</f>
         <v>150</v>
       </c>
     </row>
-    <row r="4" spans="2:8">
+    <row r="4" spans="2:9">
       <c r="B4">
         <v>20171205</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>2</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
       <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
         <v>108</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <f t="shared" si="0"/>
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="2:8">
+    <row r="5" spans="2:9">
       <c r="B5">
         <v>20171207</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" t="s">
         <v>3</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>4</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
       <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
         <v>25</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <f t="shared" si="0"/>
         <v>283</v>
       </c>
     </row>
-    <row r="6" spans="2:8">
+    <row r="6" spans="2:9">
       <c r="B6">
         <v>20171210</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
         <v>6</v>
       </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
       <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>14.8</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <f t="shared" si="0"/>
         <v>297.8</v>
       </c>
-    </row>
-    <row r="7" spans="2:8">
+      <c r="I6" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
       <c r="B7">
         <v>20171212</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="s">
+      <c r="E7" t="s">
         <v>10</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
       <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>18.5</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <f t="shared" si="0"/>
         <v>316.3</v>
       </c>
-    </row>
-    <row r="8" spans="2:8">
+      <c r="I7" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
       <c r="B8">
         <v>20171223</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
         <v>11</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
         <v>12</v>
       </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
       <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>9.9</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <f t="shared" si="0"/>
         <v>326.2</v>
       </c>
     </row>
-    <row r="9" spans="2:8">
+    <row r="9" spans="2:9">
       <c r="B9">
         <v>20180104</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F9">
+      <c r="F9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9">
         <v>32.799999999999997</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <f t="shared" si="0"/>
         <v>359</v>
       </c>
-    </row>
-    <row r="10" spans="2:8">
+      <c r="I9" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
       <c r="B10">
         <v>20180104</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>15</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10">
+      <c r="F10">
         <v>2</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>14.4</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <f t="shared" si="0"/>
         <v>373.4</v>
       </c>
     </row>
-    <row r="11" spans="2:8">
+    <row r="11" spans="2:9">
       <c r="B11">
         <v>20180104</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
         <v>19</v>
       </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
       <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
         <v>59.7</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <f t="shared" si="0"/>
         <v>433.09999999999997</v>
       </c>
-    </row>
-    <row r="12" spans="2:8">
+      <c r="I11" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9">
       <c r="B12">
         <v>20180104</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
       <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
         <v>12.5</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <f t="shared" si="0"/>
         <v>445.59999999999997</v>
       </c>
     </row>
-    <row r="13" spans="2:8">
+    <row r="13" spans="2:9">
       <c r="B13">
         <v>20180116</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
         <v>19</v>
       </c>
-      <c r="D13" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13">
+      <c r="F13">
         <v>2</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>72.900000000000006</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <f t="shared" si="0"/>
         <v>518.5</v>
       </c>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="I13" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9">
       <c r="B14">
         <v>20180116</v>
       </c>
-      <c r="C14" t="s">
-        <v>22</v>
+      <c r="C14" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14">
+        <v>21</v>
+      </c>
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14">
         <v>3</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>14.3</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <f t="shared" si="0"/>
         <v>532.79999999999995</v>
       </c>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:9">
       <c r="B15">
         <v>20180119</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
         <v>24</v>
       </c>
-      <c r="D15" t="s">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10</v>
+      </c>
+      <c r="H15">
+        <f t="shared" si="0"/>
+        <v>542.79999999999995</v>
+      </c>
+      <c r="I15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>10</v>
-      </c>
-      <c r="G15">
-        <f t="shared" si="0"/>
-        <v>542.79999999999995</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8">
+    </row>
+    <row r="16" spans="2:9">
       <c r="B16">
         <v>20180119</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E16">
-        <v>1</v>
+      <c r="E16" t="s">
+        <v>26</v>
       </c>
       <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
         <v>10</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <f t="shared" si="0"/>
         <v>552.79999999999995</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+      <c r="I16" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
       <c r="B17">
         <v>20180308</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
         <v>29</v>
       </c>
-      <c r="D17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
       <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
         <v>625</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <f t="shared" si="0"/>
         <v>1177.8</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:9">
       <c r="B18">
         <v>20180308</v>
       </c>
-      <c r="C18" t="s">
-        <v>32</v>
+      <c r="C18" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
-      <c r="E18">
-        <v>1</v>
+      <c r="E18" t="s">
+        <v>30</v>
       </c>
       <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
         <v>29</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <f t="shared" si="0"/>
         <v>1206.8</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:9">
       <c r="B19">
         <v>20180309</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E19">
-        <v>1</v>
+      <c r="E19" t="s">
+        <v>32</v>
       </c>
       <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
         <v>61.4</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <f t="shared" si="0"/>
         <v>1268.2</v>
       </c>
     </row>
-    <row r="20" spans="2:7">
+    <row r="20" spans="2:9">
       <c r="B20">
         <v>20180310</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" t="s">
         <v>35</v>
       </c>
-      <c r="D20" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
       <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
         <v>21.1</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <f t="shared" si="0"/>
         <v>1289.3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="B21">
+        <v>20180311</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>358</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="0"/>
+        <v>1647.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="B22">
+        <v>20180312</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E22" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22">
+        <v>59</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="0"/>
+        <v>1706.3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="B23">
+        <v>20180312</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>63</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="0"/>
+        <v>1769.3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9">
+      <c r="B24">
+        <v>20180312</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" t="s">
+        <v>53</v>
+      </c>
+      <c r="F24">
+        <v>2</v>
+      </c>
+      <c r="G24">
+        <v>12.9</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="0"/>
+        <v>1782.2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="B25">
+        <v>20180313</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25">
+        <v>23</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="0"/>
+        <v>1805.2</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="B26">
+        <v>20180313</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E26" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>34</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="0"/>
+        <v>1839.2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="B27">
+        <v>20180313</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>60</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>15.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="0"/>
+        <v>1854.7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="B28">
+        <v>20180314</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E28" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>38</v>
+      </c>
+      <c r="H28">
+        <f t="shared" si="0"/>
+        <v>1892.7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="B29">
+        <v>20180315</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" t="s">
+        <v>65</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>6.7</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>1899.4</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/球管测速仪研发支出.xlsx
+++ b/doc/财务记录/球管测速仪研发支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
   <si>
     <t>何老师一行的车马费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -524,6 +524,17 @@
   </si>
   <si>
     <t>https://detail.tmall.com/item.htm?id=520311054724&amp;spm=a1z09.2.0.0.67002e8dY5QF6p&amp;_u=f3s1snicf50</t>
+  </si>
+  <si>
+    <t>硬盘两块(HPS700 120G + 东芝P300 1T)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.jd.com/5236832.html</t>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -869,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I29"/>
+  <dimension ref="B2:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -929,7 +940,7 @@
         <v>150</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H29" si="0">H2+G3</f>
+        <f t="shared" ref="H3:H30" si="0">H2+G3</f>
         <v>150</v>
       </c>
     </row>
@@ -1268,26 +1279,29 @@
     </row>
     <row r="17" spans="2:9">
       <c r="B17">
-        <v>20180308</v>
+        <v>20180203</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="E17" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>625</v>
+        <v>558.4</v>
       </c>
       <c r="H17">
         <f t="shared" si="0"/>
-        <v>1177.8</v>
+        <v>1111.1999999999998</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="2:9">
@@ -1297,117 +1311,117 @@
       <c r="C18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D18" t="s">
-        <v>31</v>
+      <c r="D18" s="1" t="s">
+        <v>28</v>
       </c>
       <c r="E18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>29</v>
+        <v>625</v>
       </c>
       <c r="H18">
-        <f t="shared" si="0"/>
-        <v>1206.8</v>
+        <f>H17+G18</f>
+        <v>1736.1999999999998</v>
       </c>
     </row>
     <row r="19" spans="2:9">
       <c r="B19">
-        <v>20180309</v>
+        <v>20180308</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>33</v>
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>61.4</v>
+        <v>29</v>
       </c>
       <c r="H19">
         <f t="shared" si="0"/>
-        <v>1268.2</v>
+        <v>1765.1999999999998</v>
       </c>
     </row>
     <row r="20" spans="2:9">
       <c r="B20">
-        <v>20180310</v>
+        <v>20180309</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E20" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>21.1</v>
+        <v>61.4</v>
       </c>
       <c r="H20">
         <f t="shared" si="0"/>
-        <v>1289.3</v>
+        <v>1826.6</v>
       </c>
     </row>
     <row r="21" spans="2:9">
       <c r="B21">
-        <v>20180311</v>
+        <v>20180310</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>358</v>
+        <v>21.1</v>
       </c>
       <c r="H21">
         <f t="shared" si="0"/>
-        <v>1647.3</v>
+        <v>1847.6999999999998</v>
       </c>
     </row>
     <row r="22" spans="2:9">
       <c r="B22">
-        <v>20180312</v>
+        <v>20180311</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="E22" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="F22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>59</v>
+        <v>358</v>
       </c>
       <c r="H22">
         <f t="shared" si="0"/>
-        <v>1706.3</v>
+        <v>2205.6999999999998</v>
       </c>
     </row>
     <row r="23" spans="2:9">
@@ -1418,20 +1432,20 @@
         <v>41</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G23">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="H23">
         <f t="shared" si="0"/>
-        <v>1769.3</v>
+        <v>2264.6999999999998</v>
       </c>
     </row>
     <row r="24" spans="2:9">
@@ -1442,47 +1456,44 @@
         <v>41</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>12.9</v>
+        <v>63</v>
       </c>
       <c r="H24">
         <f t="shared" si="0"/>
-        <v>1782.2</v>
+        <v>2327.6999999999998</v>
       </c>
     </row>
     <row r="25" spans="2:9">
       <c r="B25">
-        <v>20180313</v>
+        <v>20180312</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>56</v>
-      </c>
-      <c r="F25" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
       </c>
       <c r="G25">
-        <v>23</v>
+        <v>12.9</v>
       </c>
       <c r="H25">
         <f t="shared" si="0"/>
-        <v>1805.2</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>38</v>
+        <v>2340.6</v>
       </c>
     </row>
     <row r="26" spans="2:9">
@@ -1490,23 +1501,26 @@
         <v>20180313</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="E26" t="s">
-        <v>58</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
+        <v>56</v>
+      </c>
+      <c r="F26" t="s">
+        <v>57</v>
       </c>
       <c r="G26">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="H26">
         <f t="shared" si="0"/>
-        <v>1839.2</v>
+        <v>2363.6</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="2:9">
@@ -1517,68 +1531,92 @@
         <v>43</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>15.5</v>
+        <v>34</v>
       </c>
       <c r="H27">
         <f t="shared" si="0"/>
-        <v>1854.7</v>
+        <v>2397.6</v>
       </c>
     </row>
     <row r="28" spans="2:9">
       <c r="B28">
-        <v>20180314</v>
+        <v>20180313</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E28" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>38</v>
+        <v>15.5</v>
       </c>
       <c r="H28">
         <f t="shared" si="0"/>
-        <v>1892.7</v>
+        <v>2413.1</v>
       </c>
     </row>
     <row r="29" spans="2:9">
       <c r="B29">
-        <v>20180315</v>
+        <v>20180314</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>43</v>
       </c>
       <c r="D29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>38</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="0"/>
+        <v>2451.1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="B30">
+        <v>20180315</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E30" t="s">
         <v>65</v>
       </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
         <v>6.7</v>
       </c>
-      <c r="H29">
-        <f t="shared" si="0"/>
-        <v>1899.4</v>
+      <c r="H30">
+        <f t="shared" si="0"/>
+        <v>2457.7999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/doc/财务记录/球管测速仪研发支出.xlsx
+++ b/doc/财务记录/球管测速仪研发支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
   <si>
     <t>何老师一行的车马费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -534,6 +534,46 @@
   </si>
   <si>
     <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AV转USB模块</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.1b4d2e8dNoXGcg&amp;id=554954059138&amp;_u=q3s1sni2347</t>
+  </si>
+  <si>
+    <t>USB内窥镜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.1b4d2e8dNoXGcg&amp;id=16295402936&amp;_u=q3s1snia3a3</t>
+  </si>
+  <si>
+    <t>7寸显示屏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.1b4d2e8dNoXGcg&amp;id=45588381158&amp;_u=q3s1sniab1e</t>
+  </si>
+  <si>
+    <t>红外摄像机</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发设备</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.1b4d2e8dNoXGcg&amp;id=43373852025&amp;_u=q3s1snib1ed</t>
+  </si>
+  <si>
+    <t>多种元器件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中发采购</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I30"/>
+  <dimension ref="B2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -940,7 +980,7 @@
         <v>150</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H30" si="0">H2+G3</f>
+        <f t="shared" ref="H3:H35" si="0">H2+G3</f>
         <v>150</v>
       </c>
     </row>
@@ -1619,10 +1659,127 @@
         <v>2457.7999999999997</v>
       </c>
     </row>
+    <row r="31" spans="2:9">
+      <c r="B31">
+        <v>20180320</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" t="s">
+        <v>70</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>27</v>
+      </c>
+      <c r="H31">
+        <f t="shared" si="0"/>
+        <v>2484.7999999999997</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="B32">
+        <v>20180320</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>77</v>
+      </c>
+      <c r="H32">
+        <f t="shared" si="0"/>
+        <v>2561.7999999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9">
+      <c r="B33">
+        <v>20180320</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E33" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>182</v>
+      </c>
+      <c r="H33">
+        <f t="shared" si="0"/>
+        <v>2743.7999999999997</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9">
+      <c r="B34">
+        <v>20180320</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E34" t="s">
+        <v>77</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="H34">
+        <f t="shared" si="0"/>
+        <v>2882.9999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9">
+      <c r="B35">
+        <v>20180323</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="G35">
+        <v>777</v>
+      </c>
+      <c r="H35">
+        <f t="shared" si="0"/>
+        <v>3659.9999999999995</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/doc/财务记录/球管测速仪研发支出.xlsx
+++ b/doc/财务记录/球管测速仪研发支出.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="90">
   <si>
     <t>何老师一行的车马费</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,40 @@
   </si>
   <si>
     <t>中发采购</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://telesky.tmall.com/shop/view_shop.htm?spm=a1z09.2.0.0.5abd2e8dlmKydN&amp;user_number_id=2207691322</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.5abd2e8dlmKydN&amp;id=530815172061&amp;_u=v3s1sni892f</t>
+  </si>
+  <si>
+    <t>x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电源适配器</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.5abd2e8dlmKydN&amp;id=555458325796&amp;_u=v3s1snieee6</t>
+  </si>
+  <si>
+    <t>https://risym.tmall.com/shop/view_shop.htm?spm=a1z09.2.0.0.5abd2e8dlmKydN&amp;user_number_id=738263294</t>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.5abd2e8dlmKydN&amp;id=523361737493&amp;_u=v3s1sni11e2</t>
+  </si>
+  <si>
+    <t>MCU核心板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.taobao.com/item.htm?spm=a1z09.2.0.0.89902e8dRjnU9z&amp;id=551507300102&amp;_u=v3s1sni9715</t>
+  </si>
+  <si>
+    <t>PCB制版费预付款</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -920,15 +954,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B2:I35"/>
+  <dimension ref="B2:I42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="I35" sqref="I35"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="9.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.875" customWidth="1"/>
     <col min="4" max="4" width="24.25" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
@@ -980,7 +1014,7 @@
         <v>150</v>
       </c>
       <c r="H3">
-        <f t="shared" ref="H3:H35" si="0">H2+G3</f>
+        <f t="shared" ref="H3:H42" si="0">H2+G3</f>
         <v>150</v>
       </c>
     </row>
@@ -1774,6 +1808,171 @@
       </c>
       <c r="I35" s="1" t="s">
         <v>79</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9">
+      <c r="B36">
+        <v>20180327</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E36" t="s">
+        <v>80</v>
+      </c>
+      <c r="F36" t="s">
+        <v>82</v>
+      </c>
+      <c r="G36">
+        <v>41.15</v>
+      </c>
+      <c r="H36">
+        <f t="shared" si="0"/>
+        <v>3701.1499999999996</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9">
+      <c r="B37">
+        <v>20180327</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>81</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>16.8</v>
+      </c>
+      <c r="H37">
+        <f t="shared" si="0"/>
+        <v>3717.95</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9">
+      <c r="B38">
+        <v>20180329</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E38" t="s">
+        <v>84</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>9.9</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="0"/>
+        <v>3727.85</v>
+      </c>
+    </row>
+    <row r="39" spans="2:9">
+      <c r="B39">
+        <v>20180329</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E39" t="s">
+        <v>85</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>45.16</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="0"/>
+        <v>3773.0099999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9">
+      <c r="B40">
+        <v>20180330</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40">
+        <v>101</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="0"/>
+        <v>3874.0099999999998</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9">
+      <c r="B41">
+        <v>20180331</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="E41" t="s">
+        <v>86</v>
+      </c>
+      <c r="F41">
+        <v>2</v>
+      </c>
+      <c r="G41">
+        <v>116</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>3990.0099999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9">
+      <c r="B42">
+        <v>20180331</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>25</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="0"/>
+        <v>4015.0099999999998</v>
       </c>
     </row>
   </sheetData>
